--- a/Data/Fall2018java.xlsx
+++ b/Data/Fall2018java.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eldrid\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C6B83946-FACC-4F22-A738-7AF34715EAF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="7900"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="18300" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,23 +409,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -494,7 +491,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -508,7 +505,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -522,7 +519,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -536,7 +533,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -550,7 +547,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -564,7 +561,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -580,8 +577,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
